--- a/biology/Botanique/Géranium_à_feuilles_argentées/Géranium_à_feuilles_argentées.xlsx
+++ b/biology/Botanique/Géranium_à_feuilles_argentées/Géranium_à_feuilles_argentées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_%C3%A0_feuilles_argent%C3%A9es</t>
+          <t>Géranium_à_feuilles_argentées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium argenteum
 Le Géranium à feuilles argentées (Geranium argenteum) est une espèce de plantes vivaces de la famille des Geraniacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_%C3%A0_feuilles_argent%C3%A9es</t>
+          <t>Géranium_à_feuilles_argentées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Géranium à feuille argentées est une plante d'altitude se développant entre 1 700 et 2 500 m, sur des sols rocailleux et calcaires[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Géranium à feuille argentées est une plante d'altitude se développant entre 1 700 et 2 500 m, sur des sols rocailleux et calcaires.
 Ce géranium mesure entre 8 et 15 cm et ses fleurs présentes généralement un diamètre compris entre 25 et 30 mm.
-Entre juin et août[2], la plante produit des fleurs roses pâles recouvertes de très légers poils argentés, caractéristiques de cette espèces[1].
+Entre juin et août, la plante produit des fleurs roses pâles recouvertes de très légers poils argentés, caractéristiques de cette espèces.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_%C3%A0_feuilles_argent%C3%A9es</t>
+          <t>Géranium_à_feuilles_argentées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre cette plante en Europe. Plus précisément dans les Alpes, notamment en Italie, en France et en Slovénie[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre cette plante en Europe. Plus précisément dans les Alpes, notamment en Italie, en France et en Slovénie,.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_%C3%A0_feuilles_argent%C3%A9es</t>
+          <t>Géranium_à_feuilles_argentées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Menaces et statuts de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est présente sur la liste rouge de la flore vasculaire de France métropolitaine, de Rhône-Alpes, de Provence-Alpes-Côte-d'Azur et sur la liste rouge de la flore de Bourgogne[4].
-Cette plante est notamment menacée par le piétinement des troupeaux d'ovins, de plus en plus présents sur son aire de répartition[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est présente sur la liste rouge de la flore vasculaire de France métropolitaine, de Rhône-Alpes, de Provence-Alpes-Côte-d'Azur et sur la liste rouge de la flore de Bourgogne.
+Cette plante est notamment menacée par le piétinement des troupeaux d'ovins, de plus en plus présents sur son aire de répartition.
 </t>
         </is>
       </c>
